--- a/media_files/uploads/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/media_files/uploads/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4006A49-E0FD-4F4C-BC63-D68680EB93BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BE642-3D7D-C44F-A508-4184625341DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="6" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="6" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -28,17 +28,26 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DISCIPLINAS!$A$1:$A$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">STATUS!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="115">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -371,9 +380,6 @@
   </si>
   <si>
     <t>CUSTO_DOC</t>
-  </si>
-  <si>
-    <t>CUSTO_HH</t>
   </si>
   <si>
     <t>2020001</t>
@@ -773,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998DF3DB-5027-4BDE-BFB5-DA5C0F46C3FE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1290,7 +1296,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1307,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,7 +1318,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,7 +1329,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1334,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1347,11 +1353,11 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1371,13 +1377,10 @@
         <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1399,11 +1402,8 @@
       <c r="G2" s="1">
         <v>3000</v>
       </c>
-      <c r="H2" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1425,11 +1425,8 @@
       <c r="G3" s="1">
         <v>3000</v>
       </c>
-      <c r="H3" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1451,11 +1448,8 @@
       <c r="G4" s="1">
         <v>1000</v>
       </c>
-      <c r="H4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1475,13 +1469,10 @@
         <v>25</v>
       </c>
       <c r="G5" s="1">
-        <v>500</v>
-      </c>
-      <c r="H5" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1503,11 +1494,8 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1529,11 +1517,8 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1553,13 +1538,10 @@
         <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1579,13 +1561,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1607,11 +1586,8 @@
       <c r="G10" s="1">
         <v>1500</v>
       </c>
-      <c r="H10" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1633,11 +1609,8 @@
       <c r="G11" s="1">
         <v>1500</v>
       </c>
-      <c r="H11" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1659,11 +1632,8 @@
       <c r="G12" s="1">
         <v>1000</v>
       </c>
-      <c r="H12" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1685,11 +1655,8 @@
       <c r="G13" s="1">
         <v>800</v>
       </c>
-      <c r="H13" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1711,11 +1678,8 @@
       <c r="G14" s="1">
         <v>800</v>
       </c>
-      <c r="H14" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1737,11 +1701,8 @@
       <c r="G15" s="1">
         <v>800</v>
       </c>
-      <c r="H15" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1763,11 +1724,8 @@
       <c r="G16" s="1">
         <v>800</v>
       </c>
-      <c r="H16" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1789,11 +1747,8 @@
       <c r="G17" s="1">
         <v>800</v>
       </c>
-      <c r="H17" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1815,11 +1770,8 @@
       <c r="G18" s="1">
         <v>3000</v>
       </c>
-      <c r="H18" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1841,11 +1793,8 @@
       <c r="G19" s="1">
         <v>3000</v>
       </c>
-      <c r="H19" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1867,11 +1816,8 @@
       <c r="G20" s="1">
         <v>1000</v>
       </c>
-      <c r="H20" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1891,13 +1837,10 @@
         <v>25</v>
       </c>
       <c r="G21" s="1">
-        <v>500</v>
-      </c>
-      <c r="H21" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1919,11 +1862,8 @@
       <c r="G22" s="1">
         <v>100</v>
       </c>
-      <c r="H22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1945,11 +1885,8 @@
       <c r="G23" s="1">
         <v>100</v>
       </c>
-      <c r="H23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1969,13 +1906,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1995,13 +1929,10 @@
         <v>10</v>
       </c>
       <c r="G25" s="1">
-        <v>100</v>
-      </c>
-      <c r="H25" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2023,11 +1954,8 @@
       <c r="G26" s="1">
         <v>1500</v>
       </c>
-      <c r="H26" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2049,11 +1977,8 @@
       <c r="G27" s="1">
         <v>1500</v>
       </c>
-      <c r="H27" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2075,11 +2000,8 @@
       <c r="G28" s="1">
         <v>1000</v>
       </c>
-      <c r="H28" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2101,11 +2023,8 @@
       <c r="G29" s="1">
         <v>800</v>
       </c>
-      <c r="H29" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2127,11 +2046,8 @@
       <c r="G30" s="1">
         <v>800</v>
       </c>
-      <c r="H30" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2153,11 +2069,8 @@
       <c r="G31" s="1">
         <v>800</v>
       </c>
-      <c r="H31" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2179,11 +2092,8 @@
       <c r="G32" s="1">
         <v>800</v>
       </c>
-      <c r="H32" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2203,9 +2113,6 @@
         <v>15</v>
       </c>
       <c r="G33" s="1">
-        <v>800</v>
-      </c>
-      <c r="H33" s="1">
         <v>800</v>
       </c>
     </row>
@@ -2583,7 +2490,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/media_files/uploads/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/media_files/uploads/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/media_files/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BA13C-84D3-844F-836C-A0FC7670DE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE43FAE-D370-D440-B8AE-F5287F460A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -2729,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3134,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2850497-5114-3C4B-8F98-8094153DCBFF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="U1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
